--- a/templates/results.xlsx
+++ b/templates/results.xlsx
@@ -829,10 +829,8 @@
           <t>Part No:</t>
         </is>
       </c>
-      <c r="D5" s="37" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="D5" s="37" t="n">
+        <v>123</v>
       </c>
       <c r="E5" s="40" t="n"/>
       <c r="F5" s="31" t="n"/>
